--- a/release/web/resources/datatables/LuckyBox.xlsx
+++ b/release/web/resources/datatables/LuckyBox.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383BF860-4EC5-41CA-8602-CA40223EE224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D42263-904F-4F52-9020-7BF5DF641292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="5715" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="3855" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -43,67 +43,77 @@
     <t>宝箱获取类型</t>
   </si>
   <si>
+    <t>luckyboxGetMin</t>
+  </si>
+  <si>
+    <t>luckyboxGetMax</t>
+  </si>
+  <si>
+    <t>luckyboxGetType</t>
+  </si>
+  <si>
+    <t>luckybox_bronze</t>
+  </si>
+  <si>
+    <t>luckybox_silver</t>
+  </si>
+  <si>
+    <t>luckybox_gold</t>
+  </si>
+  <si>
+    <t>luckybox_diamond</t>
+  </si>
+  <si>
+    <t>luckybox_platinum</t>
+  </si>
+  <si>
+    <t>对应图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱ID</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>luckyboxType</t>
   </si>
   <si>
-    <t>luckyboxGetMin</t>
-  </si>
-  <si>
-    <t>luckyboxGetMax</t>
-  </si>
-  <si>
-    <t>luckyboxGetType</t>
-  </si>
-  <si>
-    <t>luckybox_bronze</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>luckybox_silver</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>luckybox_gold</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>luckybox_diamond</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>luckybox_platinum</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>LUCKYBOXBRONZE</t>
+  </si>
+  <si>
+    <t>LUCKYBOXSILVER</t>
+  </si>
+  <si>
+    <t>LUCKYBOXGOLD</t>
+  </si>
+  <si>
+    <t>LUCKYBOXDIAMOND</t>
+  </si>
+  <si>
+    <t>LUCKYBOXPLATINUM</t>
+  </si>
+  <si>
+    <t>本地化描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localizationKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -487,146 +497,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2003</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>1002</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2004</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2005</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>1004</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2006</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>1005</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2007</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:G8" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>